--- a/STM32/libraries/BoardExamples/examples/all_boards/Benchmarks/Benchmarks-results.xlsx
+++ b/STM32/libraries/BoardExamples/examples/all_boards/Benchmarks/Benchmarks-results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="18225" windowHeight="10125"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>Board</t>
   </si>
@@ -235,6 +235,32 @@
   </si>
   <si>
     <t>NANO120</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM4EXPLAINED</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>flash</t>
+  </si>
+  <si>
+    <t>sram</t>
+  </si>
+  <si>
+    <t>STM32F207</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUVOTON_M481</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUC970</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddr_ram</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -898,7 +924,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -926,44 +952,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1307,13 +1345,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1321,85 +1359,102 @@
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="8.75" customWidth="1"/>
     <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
-    <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="7" max="8" width="8.625" customWidth="1"/>
-    <col min="9" max="9" width="8.125" customWidth="1"/>
+    <col min="4" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="7" width="8.625" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
     <col min="10" max="10" width="8.625" customWidth="1"/>
-    <col min="11" max="11" width="8.75" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="8.25" customWidth="1"/>
-    <col min="14" max="14" width="8.625" customWidth="1"/>
-    <col min="15" max="15" width="7.75" customWidth="1"/>
-    <col min="16" max="16" width="8.375" customWidth="1"/>
-    <col min="17" max="17" width="7.125" customWidth="1"/>
-    <col min="18" max="18" width="10.875" customWidth="1"/>
-    <col min="19" max="19" width="6.75" customWidth="1"/>
-    <col min="20" max="20" width="6" customWidth="1"/>
-    <col min="21" max="21" width="7.875" customWidth="1"/>
-    <col min="22" max="22" width="7.375" customWidth="1"/>
-    <col min="23" max="23" width="8.125" customWidth="1"/>
-    <col min="24" max="24" width="7.5" customWidth="1"/>
-    <col min="25" max="25" width="9.125" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="8.75" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="8.25" customWidth="1"/>
+    <col min="16" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="7.75" customWidth="1"/>
+    <col min="18" max="18" width="8.375" customWidth="1"/>
+    <col min="19" max="19" width="7.125" customWidth="1"/>
+    <col min="20" max="20" width="10.875" customWidth="1"/>
+    <col min="21" max="21" width="6.75" customWidth="1"/>
+    <col min="22" max="22" width="8.125" customWidth="1"/>
+    <col min="23" max="23" width="6.75" customWidth="1"/>
+    <col min="24" max="24" width="8.125" customWidth="1"/>
+    <col min="25" max="25" width="6.75" customWidth="1"/>
+    <col min="26" max="26" width="6" customWidth="1"/>
+    <col min="27" max="27" width="7.875" customWidth="1"/>
+    <col min="28" max="28" width="7.375" customWidth="1"/>
+    <col min="29" max="29" width="8.125" customWidth="1"/>
+    <col min="30" max="30" width="7.5" customWidth="1"/>
+    <col min="31" max="31" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="17" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="20"/>
+      <c r="N1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="20"/>
+      <c r="P1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="20"/>
+      <c r="R1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="22"/>
+      <c r="T1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="U1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" s="22"/>
+      <c r="W1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="20"/>
-      <c r="U1" s="19" t="s">
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="20"/>
-      <c r="W1" s="17" t="s">
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="2" t="s">
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
@@ -1409,74 +1464,88 @@
       <c r="C2" s="8">
         <v>400</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>216</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="14"/>
+      <c r="F2" s="21">
         <v>216</v>
       </c>
-      <c r="F2" s="9">
-        <v>216</v>
-      </c>
-      <c r="G2" s="2">
-        <v>216</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="G2" s="22"/>
+      <c r="H2" s="2">
+        <v>300</v>
+      </c>
+      <c r="I2" s="15">
+        <v>192</v>
+      </c>
+      <c r="J2" s="8">
         <v>180</v>
       </c>
-      <c r="I2" s="2">
+      <c r="K2" s="2">
         <v>180</v>
       </c>
-      <c r="J2" s="2">
+      <c r="L2" s="2">
         <v>168</v>
       </c>
-      <c r="K2" s="2">
+      <c r="M2" s="2">
         <v>168</v>
       </c>
-      <c r="L2" s="2">
+      <c r="N2" s="2">
         <v>120</v>
       </c>
-      <c r="M2" s="2">
+      <c r="O2" s="2">
         <v>120</v>
       </c>
-      <c r="N2" s="2">
+      <c r="P2" s="2">
         <v>84</v>
       </c>
-      <c r="O2" s="2">
+      <c r="Q2" s="2">
         <v>84</v>
-      </c>
-      <c r="P2" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>80</v>
       </c>
       <c r="R2" s="2">
         <v>80</v>
       </c>
       <c r="S2" s="2">
+        <v>80</v>
+      </c>
+      <c r="T2" s="2">
+        <v>80</v>
+      </c>
+      <c r="U2" s="2">
         <v>120</v>
       </c>
-      <c r="T2" s="2">
+      <c r="V2" s="2">
         <v>120</v>
       </c>
-      <c r="U2" s="2">
+      <c r="W2" s="2">
+        <v>120</v>
+      </c>
+      <c r="X2" s="2">
+        <v>120</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>120</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>120</v>
+      </c>
+      <c r="AA2" s="2">
         <v>72</v>
       </c>
-      <c r="V2" s="2">
+      <c r="AB2" s="2">
         <v>72</v>
       </c>
-      <c r="W2" s="2">
+      <c r="AC2" s="2">
         <v>28</v>
       </c>
-      <c r="X2" s="2">
+      <c r="AD2" s="2">
         <v>14</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="AE2" s="2">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -1486,23 +1555,19 @@
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>49</v>
@@ -1532,28 +1597,46 @@
         <v>49</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="U3" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>58</v>
@@ -1565,15 +1648,17 @@
         <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1591,8 +1676,14 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1606,135 +1697,163 @@
         <v>211.82</v>
       </c>
       <c r="E5" s="3">
+        <v>208.77</v>
+      </c>
+      <c r="F5" s="3">
         <v>210</v>
-      </c>
-      <c r="F5" s="3">
-        <v>208.77</v>
       </c>
       <c r="G5" s="3">
         <v>160.26</v>
       </c>
       <c r="H5" s="3">
+        <v>45.62</v>
+      </c>
+      <c r="I5" s="17">
+        <v>186.9</v>
+      </c>
+      <c r="J5" s="3">
         <v>133.69</v>
       </c>
-      <c r="I5" s="3">
+      <c r="K5" s="3">
         <v>106.16</v>
       </c>
-      <c r="J5" s="3">
+      <c r="L5" s="3">
         <v>125.16</v>
       </c>
-      <c r="K5" s="3">
+      <c r="M5" s="3">
         <v>94.7</v>
       </c>
-      <c r="L5" s="3">
+      <c r="N5" s="3">
         <v>73.42</v>
       </c>
-      <c r="M5" s="3">
+      <c r="O5" s="3">
         <v>66.010000000000005</v>
       </c>
-      <c r="N5" s="3">
+      <c r="P5" s="3">
         <v>65.45</v>
       </c>
-      <c r="O5" s="3">
+      <c r="Q5" s="3">
         <v>51.44</v>
       </c>
-      <c r="P5" s="3">
+      <c r="R5" s="3">
         <v>52.66</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="S5" s="3">
         <v>49.19</v>
       </c>
-      <c r="R5" s="3">
+      <c r="T5" s="3">
         <v>51.23</v>
       </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3">
+        <v>8.75</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3">
+        <v>12.06</v>
+      </c>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3">
         <v>8.26</v>
       </c>
-      <c r="U5" s="3">
+      <c r="AA5" s="3">
         <v>7.4</v>
       </c>
-      <c r="V5" s="3">
+      <c r="AB5" s="3">
         <v>7.41</v>
       </c>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="4">
         <v>1073979.6599999999</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>1073979.6599999999</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>586692.64</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
+        <v>575801.81000000006</v>
+      </c>
+      <c r="F6" s="12">
         <v>506917</v>
       </c>
-      <c r="F6" s="13">
-        <v>575801.81000000006</v>
-      </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>236739.25</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="11">
+        <v>362000</v>
+      </c>
+      <c r="I6" s="18">
+        <v>235226</v>
+      </c>
+      <c r="J6" s="12">
         <v>221864.28</v>
       </c>
-      <c r="I6" s="12">
+      <c r="K6" s="11">
         <v>160490.09</v>
       </c>
-      <c r="J6" s="13">
+      <c r="L6" s="12">
         <v>205808.6</v>
       </c>
-      <c r="K6" s="13">
+      <c r="M6" s="12">
         <v>142412.6</v>
       </c>
-      <c r="L6" s="13">
+      <c r="N6" s="12">
         <v>147484.29</v>
       </c>
-      <c r="M6" s="13">
+      <c r="O6" s="12">
         <v>100325.89</v>
       </c>
-      <c r="N6" s="13">
+      <c r="P6" s="12">
         <v>114669</v>
       </c>
-      <c r="O6" s="12">
+      <c r="Q6" s="11">
         <v>88821.91</v>
       </c>
-      <c r="P6" s="12">
+      <c r="R6" s="11">
         <v>103669.52</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="S6" s="12">
         <v>84938</v>
       </c>
-      <c r="R6" s="12">
+      <c r="T6" s="11">
         <v>126773</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="13">
+      <c r="U6" s="11"/>
+      <c r="V6" s="11">
+        <v>99350</v>
+      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4">
+        <v>106956</v>
+      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="12">
         <v>61112.83</v>
       </c>
-      <c r="V6" s="13">
+      <c r="AB6" s="12">
         <v>75633.94</v>
       </c>
-      <c r="W6" s="12">
+      <c r="AC6" s="11">
         <v>36599.33</v>
       </c>
-      <c r="X6" s="12">
+      <c r="AD6" s="11">
         <v>25764</v>
       </c>
-      <c r="Y6" s="12">
+      <c r="AE6" s="11">
         <v>36208</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -1748,68 +1867,82 @@
         <v>333.92</v>
       </c>
       <c r="E7" s="3">
+        <v>327.72</v>
+      </c>
+      <c r="F7" s="3">
         <v>288.51</v>
-      </c>
-      <c r="F7" s="3">
-        <v>327.72</v>
       </c>
       <c r="G7" s="3">
         <v>134.74</v>
       </c>
       <c r="H7" s="3">
+        <v>206.3</v>
+      </c>
+      <c r="I7" s="17">
+        <v>133.88</v>
+      </c>
+      <c r="J7" s="3">
         <v>126.27</v>
       </c>
-      <c r="I7" s="3">
+      <c r="K7" s="3">
         <v>91.34</v>
       </c>
-      <c r="J7" s="3">
+      <c r="L7" s="3">
         <v>117.13</v>
       </c>
-      <c r="K7" s="3">
+      <c r="M7" s="3">
         <v>81.05</v>
       </c>
-      <c r="L7" s="3">
+      <c r="N7" s="3">
         <v>83.94</v>
       </c>
-      <c r="M7" s="3">
+      <c r="O7" s="3">
         <v>57.1</v>
       </c>
-      <c r="N7" s="3">
+      <c r="P7" s="3">
         <v>65.260000000000005</v>
       </c>
-      <c r="O7" s="3">
+      <c r="Q7" s="3">
         <v>50.55</v>
       </c>
-      <c r="P7" s="3">
+      <c r="R7" s="3">
         <v>59</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="S7" s="3">
         <v>48.34</v>
       </c>
-      <c r="R7" s="3">
+      <c r="T7" s="3">
         <v>72.150000000000006</v>
       </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3">
+      <c r="U7" s="3"/>
+      <c r="V7" s="3">
+        <v>56.55</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3">
+        <v>60.87</v>
+      </c>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3">
         <v>50.14</v>
       </c>
-      <c r="U7" s="3">
+      <c r="AA7" s="3">
         <v>34.78</v>
       </c>
-      <c r="V7" s="3">
+      <c r="AB7" s="3">
         <v>43.05</v>
       </c>
-      <c r="W7" s="3">
+      <c r="AC7" s="3">
         <v>20.83</v>
       </c>
-      <c r="X7" s="3">
+      <c r="AD7" s="3">
         <v>14.66</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="AE7" s="3">
         <v>20.61</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1835,130 +1968,148 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>25826.45</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>25826.45</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11">
         <v>39204.92</v>
       </c>
-      <c r="G9" s="12">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11">
         <v>39183.42</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11">
         <v>35947</v>
       </c>
-      <c r="I9" s="12">
+      <c r="K9" s="11">
         <v>29944.6</v>
       </c>
-      <c r="J9" s="12">
+      <c r="L9" s="11">
         <v>33550.29</v>
       </c>
-      <c r="K9" s="12">
+      <c r="M9" s="11">
         <v>20967</v>
       </c>
-      <c r="L9" s="12">
+      <c r="N9" s="11">
         <v>23946.36</v>
       </c>
-      <c r="M9" s="12">
+      <c r="O9" s="11">
         <v>23946.36</v>
       </c>
-      <c r="N9" s="12">
+      <c r="P9" s="11">
         <v>20959.53</v>
       </c>
-      <c r="O9" s="12">
+      <c r="Q9" s="11">
         <v>20945.919999999998</v>
       </c>
-      <c r="P9" s="12">
+      <c r="R9" s="11">
         <v>19952.91</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="S9" s="11">
         <v>19935</v>
       </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="12">
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="11">
         <v>10265.459999999999</v>
       </c>
-      <c r="V9" s="12">
+      <c r="AB9" s="11">
         <v>7188.5</v>
       </c>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>42163.85</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>42163.85</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11">
         <v>61606.7</v>
       </c>
-      <c r="G10" s="12">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11">
         <v>20549.07</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11">
         <v>19984</v>
       </c>
-      <c r="I10" s="12">
+      <c r="K10" s="11">
         <v>12845.71</v>
       </c>
-      <c r="J10" s="12">
+      <c r="L10" s="11">
         <v>23977.37</v>
       </c>
-      <c r="K10" s="12">
+      <c r="M10" s="11">
         <v>10490</v>
       </c>
-      <c r="L10" s="12">
+      <c r="N10" s="11">
         <v>17121.240000000002</v>
       </c>
-      <c r="M10" s="12">
+      <c r="O10" s="11">
         <v>13984.06</v>
       </c>
-      <c r="N10" s="12">
+      <c r="P10" s="11">
         <v>11979</v>
       </c>
-      <c r="O10" s="12">
+      <c r="Q10" s="11">
         <v>10485.92</v>
       </c>
-      <c r="P10" s="12">
+      <c r="R10" s="11">
         <v>13316.29</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="S10" s="11">
         <v>9984</v>
       </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="12">
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="11">
         <v>11979.06</v>
       </c>
-      <c r="V10" s="12">
+      <c r="AB10" s="11">
         <v>5992.83</v>
       </c>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
@@ -1986,23 +2137,29 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C16" s="6" t="s">
         <v>48</v>
       </c>
@@ -2018,18 +2175,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="D1:E1"/>
+  <mergeCells count="15">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B1:C1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2041,20 +2202,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.125" customWidth="1"/>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
-    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
